--- a/Book20.xlsx
+++ b/Book20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tejas.rai\OneDrive - Adventz Group\Desktop\Travelling\nfo-approval-portal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tejas.rai\OneDrive - Adventz Group\Desktop\Projects\Travelling\nfo-approval-portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EA57D9-8A72-48A0-8188-90730A6164FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356E3676-A407-47D5-A5FC-F5A36F370489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D4A67420-F9A9-4758-8D86-7F3E137AF64C}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D4A67420-F9A9-4758-8D86-7F3E137AF64C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="469">
   <si>
     <t>Employee Number</t>
   </si>
@@ -1411,6 +1411,39 @@
   </si>
   <si>
     <t>vivek.kumar@adventz.com</t>
+  </si>
+  <si>
+    <t>ZIL004</t>
+  </si>
+  <si>
+    <t>Talha Parkar</t>
+  </si>
+  <si>
+    <t>Talha.Parkar@adventz.com</t>
+  </si>
+  <si>
+    <t>Buisness Analyst</t>
+  </si>
+  <si>
+    <t>Amit.Rungta@adventz.com</t>
+  </si>
+  <si>
+    <t>ZIL005</t>
+  </si>
+  <si>
+    <t>Amit Rungta</t>
+  </si>
+  <si>
+    <t>Head Stratergy &amp; Growth</t>
+  </si>
+  <si>
+    <t>Athar.Shahab@adventz.com</t>
+  </si>
+  <si>
+    <t>ZIL</t>
+  </si>
+  <si>
+    <t>UC</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1505,13 +1538,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1850,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111B2A5C-0BFA-4346-BAB2-A01E95AFAC65}">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C95" workbookViewId="0">
-      <selection activeCell="J103" sqref="J103"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5151,16 +5191,80 @@
         <v>7291995862</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="J103" s="8" t="s">
         <v>439</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>103</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="E104" t="s">
+        <v>460</v>
+      </c>
+      <c r="F104" s="10">
+        <v>8700986892</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>104</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F105" s="10">
+        <v>8700986892</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -5170,6 +5274,9 @@
     <hyperlink ref="G102" r:id="rId3" xr:uid="{521637A9-8D5B-403E-A0C8-89FE121AC49A}"/>
     <hyperlink ref="E103" r:id="rId4" xr:uid="{09E61017-BEFC-4C9B-BA9C-B355042F8D69}"/>
     <hyperlink ref="G103" r:id="rId5" xr:uid="{544F88C2-1E37-4F31-8A7E-05624D6189A1}"/>
+    <hyperlink ref="G104" r:id="rId6" xr:uid="{5A5DC7B2-D368-4C17-9218-098343BB613F}"/>
+    <hyperlink ref="E105" r:id="rId7" xr:uid="{2C7ACD45-EB2A-480F-95CA-4D6395B377F7}"/>
+    <hyperlink ref="G105" r:id="rId8" xr:uid="{45EF915C-9FFD-49AE-9DDB-D88A17718C6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book20.xlsx
+++ b/Book20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tejas.rai\OneDrive - Adventz Group\Desktop\Projects\Travelling\nfo-approval-portal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adventzgroup-my.sharepoint.com/personal/tejas_rai_adventz_com/Documents/Desktop/Projects/Travelling/nfo-approval-portal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356E3676-A407-47D5-A5FC-F5A36F370489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{356E3676-A407-47D5-A5FC-F5A36F370489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E92BAC1-A65F-4EC9-BA62-208A23DD69C7}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D4A67420-F9A9-4758-8D86-7F3E137AF64C}"/>
+    <workbookView xWindow="23430" yWindow="3060" windowWidth="15375" windowHeight="7785" xr2:uid="{D4A67420-F9A9-4758-8D86-7F3E137AF64C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="468">
   <si>
     <t>Employee Number</t>
   </si>
@@ -1441,9 +1441,6 @@
   </si>
   <si>
     <t>ZIL</t>
-  </si>
-  <si>
-    <t>UC</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1548,13 +1545,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1892,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111B2A5C-0BFA-4346-BAB2-A01E95AFAC65}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="M96" sqref="M96"/>
+    <sheetView tabSelected="1" topLeftCell="E101" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5204,67 +5197,67 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="9">
+      <c r="A104" s="5">
         <v>103</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="5" t="s">
         <v>461</v>
       </c>
       <c r="E104" t="s">
         <v>460</v>
       </c>
-      <c r="F104" s="10">
+      <c r="F104" s="9">
         <v>8700986892</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="H104" s="9" t="s">
+      <c r="H104" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="I104" s="9" t="s">
+      <c r="I104" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="J104" s="11" t="s">
+      <c r="J104" s="8" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="9">
+      <c r="A105" s="5">
         <v>104</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="5" t="s">
         <v>465</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="F105" s="10">
+      <c r="F105" s="9">
         <v>8700986892</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H105" s="9" t="s">
+      <c r="H105" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="I105" s="9" t="s">
+      <c r="I105" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="J105" s="11" t="s">
-        <v>468</v>
+      <c r="J105" s="8" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -5279,6 +5272,7 @@
     <hyperlink ref="G105" r:id="rId8" xr:uid="{45EF915C-9FFD-49AE-9DDB-D88A17718C6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
